--- a/benchmarks-lrp.xlsx
+++ b/benchmarks-lrp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CED6F5-D90B-4BD5-90D9-4865AED27A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EDB594-99DF-41AD-AC09-8CA637D0E8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -246,13 +246,7 @@
     <t>            μ̲   =   0.1                     ,</t>
   </si>
   <si>
-    <t>            C̲   =   4                       ,</t>
-  </si>
-  <si>
     <t>            μ̅   =   0.4                     ,</t>
-  </si>
-  <si>
-    <t>            C̅   =   60                      ,</t>
   </si>
   <si>
     <t>            ρ   =   0.1</t>
@@ -375,6 +369,12 @@
   </si>
   <si>
     <t>16.0 GB</t>
+  </si>
+  <si>
+    <t>            c̲   =   4                       ,</t>
+  </si>
+  <si>
+    <t>            c̅   =   60                      ,</t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:V287"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -1199,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -1230,7 +1230,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1284,7 +1284,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="19"/>
       <c r="K19" s="1"/>
@@ -1333,14 +1333,14 @@
     </row>
     <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1349,14 +1349,14 @@
     </row>
     <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1364,14 +1364,14 @@
     </row>
     <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1384,14 +1384,14 @@
     </row>
     <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1407,7 +1407,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1741,7 +1741,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1918,7 +1918,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2032,7 +2032,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -2049,7 +2049,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -2069,7 +2069,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -2084,7 +2084,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -2092,14 +2092,14 @@
     </row>
     <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="22" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -2107,14 +2107,14 @@
     </row>
     <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -2122,14 +2122,14 @@
     </row>
     <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="22" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -2137,14 +2137,14 @@
     </row>
     <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -2159,7 +2159,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -2174,35 +2174,35 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -2210,14 +2210,14 @@
     </row>
     <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -2853,7 +2853,7 @@
       <c r="K1" s="37"/>
       <c r="L1" s="38"/>
       <c r="N1" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
@@ -3828,7 +3828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3857,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>1</v>
@@ -3868,7 +3868,7 @@
       <c r="E2" s="46"/>
       <c r="F2" s="47"/>
       <c r="G2" s="49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.45">

--- a/benchmarks-lrp.xlsx
+++ b/benchmarks-lrp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Academia\Research\dev\LRP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4605C88C-55FE-4D84-8FD2-F9781C9048D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C224222A-D7A3-4396-AA4F-561DC6C2EB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="2" r:id="rId1"/>
@@ -1137,20 +1137,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5551421D-4FE7-47B7-A546-15E7A05240A9}">
   <dimension ref="A1:V287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="11" customWidth="1"/>
-    <col min="2" max="11" width="9.140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11.5703125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="18.54296875" style="11" customWidth="1"/>
+    <col min="2" max="11" width="9.1796875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="11.54296875" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
@@ -1162,7 +1162,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
@@ -1172,14 +1172,14 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
@@ -1192,7 +1192,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
@@ -1205,7 +1205,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>6</v>
       </c>
@@ -1213,17 +1213,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
@@ -1239,17 +1239,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>11</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>30</v>
       </c>
@@ -1289,10 +1289,10 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="18"/>
     </row>
-    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>2</v>
       </c>
@@ -1301,7 +1301,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>60</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="I24" s="1"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -1416,7 +1416,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>40</v>
       </c>
@@ -1514,7 +1514,7 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>44</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>45</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>47</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
     </row>
-    <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>49</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>51</v>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>53</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>54</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
     </row>
-    <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
     </row>
-    <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
     </row>
-    <row r="46" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="I46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="I47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="I48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
@@ -1965,7 +1965,7 @@
       <c r="I49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>100</v>
       </c>
@@ -1979,7 +1979,7 @@
       <c r="I50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>104</v>
       </c>
@@ -1993,7 +1993,7 @@
       <c r="I51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="I52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -2021,7 +2021,7 @@
       <c r="I53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
         <v>61</v>
       </c>
@@ -2038,7 +2038,7 @@
       <c r="K54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
         <v>62</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="21" t="s">
         <v>63</v>
       </c>
@@ -2073,7 +2073,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="21" t="s">
         <v>66</v>
       </c>
@@ -2088,7 +2088,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
         <v>107</v>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="21" t="s">
         <v>67</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="21" t="s">
         <v>108</v>
       </c>
@@ -2133,7 +2133,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="21" t="s">
         <v>98</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="21" t="s">
         <v>64</v>
       </c>
@@ -2163,7 +2163,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="21" t="s">
         <v>65</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="21" t="s">
         <v>95</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="21" t="s">
         <v>97</v>
       </c>
@@ -2206,7 +2206,7 @@
       <c r="H65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="21" t="s">
         <v>68</v>
       </c>
@@ -2227,583 +2227,583 @@
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
     </row>
-    <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="21"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="21"/>
       <c r="J68" s="20"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="21"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="J70" s="20"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="J71" s="20"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="J72" s="20"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J73" s="20"/>
     </row>
-    <row r="75" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J77" s="20"/>
     </row>
-    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="18"/>
     </row>
-    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="18"/>
     </row>
-    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="18"/>
     </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="18"/>
     </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="18"/>
     </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="18"/>
     </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="18"/>
     </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="18"/>
     </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="18"/>
     </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="18"/>
     </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="18"/>
     </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="18"/>
     </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="18"/>
     </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="18"/>
     </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="18"/>
     </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="18"/>
     </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="18"/>
     </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="18"/>
     </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="18"/>
     </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="18"/>
     </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="18"/>
     </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="18"/>
     </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="18"/>
     </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="18"/>
     </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="18"/>
     </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="18"/>
     </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="18"/>
     </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="18"/>
     </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="18"/>
     </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="18"/>
     </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="18"/>
     </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="18"/>
     </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="18"/>
     </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="18"/>
     </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="18"/>
     </row>
-    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="18"/>
     </row>
-    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="18"/>
     </row>
-    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="18"/>
     </row>
-    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="18"/>
     </row>
-    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="18"/>
     </row>
-    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="18"/>
     </row>
-    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="18"/>
     </row>
-    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="18"/>
     </row>
-    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="18"/>
     </row>
-    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="18"/>
     </row>
-    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="18"/>
     </row>
-    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="18"/>
     </row>
-    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="18"/>
     </row>
-    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="18"/>
     </row>
-    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="18"/>
     </row>
-    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="18"/>
     </row>
-    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="18"/>
     </row>
-    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="18"/>
     </row>
-    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="18"/>
     </row>
-    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="18"/>
     </row>
-    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="18"/>
     </row>
-    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="18"/>
     </row>
-    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="18"/>
     </row>
-    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="18"/>
     </row>
-    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="18"/>
     </row>
-    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="18"/>
     </row>
-    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="18"/>
     </row>
-    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="18"/>
     </row>
-    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="18"/>
     </row>
-    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="18"/>
     </row>
-    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="18"/>
     </row>
-    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="18"/>
     </row>
-    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="18"/>
     </row>
-    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="18"/>
     </row>
-    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="18"/>
     </row>
-    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="18"/>
     </row>
-    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="18"/>
     </row>
-    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="18"/>
     </row>
-    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="18"/>
     </row>
-    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="18"/>
     </row>
-    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="18"/>
     </row>
-    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="18"/>
     </row>
-    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="18"/>
     </row>
-    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="18"/>
     </row>
-    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="18"/>
     </row>
-    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="18"/>
     </row>
-    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="18"/>
     </row>
-    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="18"/>
     </row>
-    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="18"/>
     </row>
-    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="18"/>
     </row>
-    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="18"/>
     </row>
-    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="18"/>
     </row>
-    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="18"/>
     </row>
-    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="18"/>
     </row>
-    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="18"/>
     </row>
-    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="18"/>
     </row>
-    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="18"/>
     </row>
-    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="18"/>
     </row>
-    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="18"/>
     </row>
-    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="18"/>
     </row>
-    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="18"/>
     </row>
-    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="18"/>
     </row>
-    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="18"/>
     </row>
-    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="18"/>
     </row>
-    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="18"/>
     </row>
-    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="18"/>
     </row>
-    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="18"/>
     </row>
-    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="18"/>
     </row>
-    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="18"/>
     </row>
-    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="18"/>
     </row>
-    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="18"/>
     </row>
-    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="18"/>
     </row>
-    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="18"/>
     </row>
-    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="18"/>
     </row>
-    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="18"/>
     </row>
-    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="18"/>
     </row>
-    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="18"/>
     </row>
-    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="18"/>
     </row>
-    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="18"/>
     </row>
-    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="18"/>
     </row>
-    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="18"/>
     </row>
-    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="18"/>
     </row>
-    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="18"/>
     </row>
-    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="18"/>
     </row>
-    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="18"/>
     </row>
-    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="18"/>
     </row>
-    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="18"/>
     </row>
-    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="18"/>
     </row>
-    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="18"/>
     </row>
-    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="18"/>
     </row>
-    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="18"/>
     </row>
-    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="18"/>
     </row>
-    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="18"/>
     </row>
-    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="18"/>
     </row>
-    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="18"/>
     </row>
-    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="18"/>
     </row>
-    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="18"/>
     </row>
-    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="18"/>
     </row>
-    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="18"/>
     </row>
-    <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="18"/>
     </row>
-    <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="18"/>
     </row>
-    <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="18"/>
     </row>
-    <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="18"/>
     </row>
-    <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="18"/>
     </row>
-    <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="18"/>
     </row>
-    <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="18"/>
     </row>
-    <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="18"/>
     </row>
-    <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="18"/>
     </row>
-    <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="18"/>
     </row>
-    <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="18"/>
     </row>
-    <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="18"/>
     </row>
-    <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="18"/>
     </row>
-    <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="18"/>
     </row>
-    <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="18"/>
     </row>
-    <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="18"/>
     </row>
-    <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="18"/>
     </row>
-    <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="18"/>
     </row>
-    <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="18"/>
     </row>
-    <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="18"/>
     </row>
-    <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="18"/>
     </row>
-    <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="18"/>
     </row>
-    <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="18"/>
     </row>
-    <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="18"/>
     </row>
-    <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="18"/>
     </row>
-    <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="18"/>
     </row>
-    <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="18"/>
     </row>
-    <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="18"/>
     </row>
-    <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="18"/>
     </row>
-    <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="18"/>
     </row>
-    <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="18"/>
     </row>
-    <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="18"/>
     </row>
-    <row r="276" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="18"/>
     </row>
-    <row r="277" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="18"/>
     </row>
-    <row r="278" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="18"/>
     </row>
-    <row r="279" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="18"/>
     </row>
-    <row r="280" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="18"/>
     </row>
-    <row r="281" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="18"/>
     </row>
-    <row r="282" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="18"/>
     </row>
-    <row r="283" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="18"/>
     </row>
-    <row r="284" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="18"/>
     </row>
-    <row r="285" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="18"/>
     </row>
-    <row r="286" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="18"/>
     </row>
-    <row r="287" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="18"/>
     </row>
   </sheetData>
@@ -2817,25 +2817,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16226786-0325-4223-91E5-2589AE0E8571}">
-  <dimension ref="A1:BA40"/>
+  <dimension ref="A1:BA20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="8.5703125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="8.54296875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.453125" style="23" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="8.5703125" style="23" customWidth="1"/>
-    <col min="25" max="16384" width="8.7109375" style="23"/>
+    <col min="16" max="24" width="8.54296875" style="23" customWidth="1"/>
+    <col min="25" max="16384" width="8.7265625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>34</v>
       </c>
@@ -2864,7 +2864,7 @@
       <c r="W1" s="35"/>
       <c r="X1" s="36"/>
     </row>
-    <row r="2" spans="1:53" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
@@ -2899,7 +2899,7 @@
       <c r="W2" s="35"/>
       <c r="X2" s="36"/>
     </row>
-    <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43"/>
       <c r="B3" s="41"/>
       <c r="C3" s="24">
@@ -2964,7 +2964,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>16</v>
       </c>
@@ -3005,38 +3005,38 @@
         <v>16</v>
       </c>
       <c r="O4" s="25">
-        <v>5.9530000000000003</v>
+        <v>6.6559999999999997</v>
       </c>
       <c r="P4" s="25">
-        <v>5.8129999999999997</v>
+        <v>6.3440000000000003</v>
       </c>
       <c r="Q4" s="25">
-        <v>6.25</v>
+        <v>6.2969999999999997</v>
       </c>
       <c r="R4" s="25">
-        <v>6.4059999999999997</v>
+        <v>6.3280000000000003</v>
       </c>
       <c r="S4" s="25">
-        <v>6.03</v>
+        <v>6.2969999999999997</v>
       </c>
       <c r="T4" s="25">
-        <v>5.7649999999999997</v>
+        <v>6.3120000000000003</v>
       </c>
       <c r="U4" s="25">
-        <v>5.7960000000000003</v>
+        <v>6.2809999999999997</v>
       </c>
       <c r="V4" s="25">
-        <v>5.766</v>
+        <v>6.2809999999999997</v>
       </c>
       <c r="W4" s="25">
-        <v>5.8280000000000003</v>
+        <v>6.28</v>
       </c>
       <c r="X4" s="25">
-        <v>5.86</v>
+        <v>6.2350000000000003</v>
       </c>
       <c r="BA4" s="28"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>20</v>
       </c>
@@ -3077,38 +3077,38 @@
         <v>20</v>
       </c>
       <c r="O5" s="25">
-        <v>10.047000000000001</v>
+        <v>10.156000000000001</v>
       </c>
       <c r="P5" s="25">
-        <v>10.109</v>
+        <v>10.188000000000001</v>
       </c>
       <c r="Q5" s="25">
-        <v>10.156000000000001</v>
+        <v>10.218999999999999</v>
       </c>
       <c r="R5" s="25">
-        <v>10.093</v>
+        <v>10.234999999999999</v>
       </c>
       <c r="S5" s="25">
-        <v>10.093999999999999</v>
+        <v>10.188000000000001</v>
       </c>
       <c r="T5" s="25">
-        <v>10.141</v>
+        <v>10.281000000000001</v>
       </c>
       <c r="U5" s="25">
-        <v>10.125</v>
+        <v>10.218999999999999</v>
       </c>
       <c r="V5" s="25">
-        <v>10.016</v>
+        <v>10.14</v>
       </c>
       <c r="W5" s="25">
-        <v>10.077999999999999</v>
+        <v>10.188000000000001</v>
       </c>
       <c r="X5" s="25">
-        <v>10.079000000000001</v>
+        <v>10.204000000000001</v>
       </c>
       <c r="BA5" s="28"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>17</v>
       </c>
@@ -3149,38 +3149,38 @@
         <v>17</v>
       </c>
       <c r="O6" s="25">
-        <v>13.015000000000001</v>
+        <v>13.281000000000001</v>
       </c>
       <c r="P6" s="25">
-        <v>13.031000000000001</v>
+        <v>13.311999999999999</v>
       </c>
       <c r="Q6" s="25">
-        <v>13.031000000000001</v>
+        <v>13.297000000000001</v>
       </c>
       <c r="R6" s="25">
-        <v>13.172000000000001</v>
+        <v>13.124000000000001</v>
       </c>
       <c r="S6" s="25">
-        <v>13.045999999999999</v>
+        <v>13.234999999999999</v>
       </c>
       <c r="T6" s="25">
-        <v>13.093999999999999</v>
+        <v>13.218</v>
       </c>
       <c r="U6" s="25">
-        <v>13.109</v>
+        <v>13.5</v>
       </c>
       <c r="V6" s="25">
-        <v>13.141</v>
+        <v>13.452</v>
       </c>
       <c r="W6" s="25">
-        <v>13</v>
+        <v>13.188000000000001</v>
       </c>
       <c r="X6" s="25">
-        <v>13.047000000000001</v>
+        <v>13.218</v>
       </c>
       <c r="BA6" s="28"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>21</v>
       </c>
@@ -3221,38 +3221,38 @@
         <v>21</v>
       </c>
       <c r="O7" s="25">
-        <v>30.594000000000001</v>
+        <v>28.875</v>
       </c>
       <c r="P7" s="25">
-        <v>30.547000000000001</v>
+        <v>28.907</v>
       </c>
       <c r="Q7" s="25">
-        <v>31.015000000000001</v>
+        <v>29.077999999999999</v>
       </c>
       <c r="R7" s="25">
-        <v>30.125</v>
+        <v>28.39</v>
       </c>
       <c r="S7" s="25">
-        <v>29.905999999999999</v>
+        <v>28.030999999999999</v>
       </c>
       <c r="T7" s="25">
-        <v>30.562999999999999</v>
+        <v>28.422000000000001</v>
       </c>
       <c r="U7" s="25">
-        <v>30.329000000000001</v>
+        <v>28.125</v>
       </c>
       <c r="V7" s="25">
-        <v>30.468</v>
+        <v>28.327999999999999</v>
       </c>
       <c r="W7" s="25">
-        <v>30.077999999999999</v>
+        <v>28.015999999999998</v>
       </c>
       <c r="X7" s="25">
-        <v>30.687000000000001</v>
+        <v>28.327999999999999</v>
       </c>
       <c r="BA7" s="28"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>18</v>
       </c>
@@ -3293,38 +3293,38 @@
         <v>18</v>
       </c>
       <c r="O8" s="25">
-        <v>34.609000000000002</v>
+        <v>32.686999999999998</v>
       </c>
       <c r="P8" s="25">
-        <v>34.531999999999996</v>
+        <v>32.704000000000001</v>
       </c>
       <c r="Q8" s="25">
-        <v>34.203000000000003</v>
+        <v>32.39</v>
       </c>
       <c r="R8" s="25">
-        <v>33.578000000000003</v>
+        <v>32.203000000000003</v>
       </c>
       <c r="S8" s="25">
-        <v>33.859000000000002</v>
+        <v>32.515999999999998</v>
       </c>
       <c r="T8" s="25">
-        <v>36.578000000000003</v>
+        <v>32.515999999999998</v>
       </c>
       <c r="U8" s="25">
-        <v>34.686999999999998</v>
+        <v>32.515999999999998</v>
       </c>
       <c r="V8" s="25">
-        <v>34.515999999999998</v>
+        <v>32.328000000000003</v>
       </c>
       <c r="W8" s="25">
-        <v>35.140999999999998</v>
+        <v>32.655000000000001</v>
       </c>
       <c r="X8" s="25">
-        <v>35.171999999999997</v>
+        <v>32.703000000000003</v>
       </c>
       <c r="BA8" s="28"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
         <v>19</v>
       </c>
@@ -3365,38 +3365,38 @@
         <v>19</v>
       </c>
       <c r="O9" s="25">
-        <v>37.359000000000002</v>
+        <v>33.921999999999997</v>
       </c>
       <c r="P9" s="25">
-        <v>37.155999999999999</v>
+        <v>33.795999999999999</v>
       </c>
       <c r="Q9" s="25">
-        <v>37.453000000000003</v>
+        <v>34.14</v>
       </c>
       <c r="R9" s="25">
-        <v>37.453000000000003</v>
+        <v>33.984999999999999</v>
       </c>
       <c r="S9" s="25">
-        <v>37.875</v>
+        <v>33.906999999999996</v>
       </c>
       <c r="T9" s="25">
-        <v>37.296999999999997</v>
+        <v>33.920999999999999</v>
       </c>
       <c r="U9" s="25">
-        <v>37.453000000000003</v>
+        <v>34.046999999999997</v>
       </c>
       <c r="V9" s="25">
-        <v>37.484999999999999</v>
+        <v>34.515000000000001</v>
       </c>
       <c r="W9" s="25">
-        <v>37.219000000000001</v>
+        <v>34.046999999999997</v>
       </c>
       <c r="X9" s="25">
-        <v>37.453000000000003</v>
+        <v>34.203000000000003</v>
       </c>
       <c r="BA9" s="28"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
         <v>22</v>
       </c>
@@ -3437,38 +3437,38 @@
         <v>22</v>
       </c>
       <c r="O10" s="25">
-        <v>40.109000000000002</v>
+        <v>35.609000000000002</v>
       </c>
       <c r="P10" s="25">
-        <v>39.046999999999997</v>
+        <v>35.234000000000002</v>
       </c>
       <c r="Q10" s="25">
-        <v>39.344000000000001</v>
+        <v>35.609000000000002</v>
       </c>
       <c r="R10" s="25">
-        <v>39.219000000000001</v>
+        <v>36.030999999999999</v>
       </c>
       <c r="S10" s="25">
-        <v>39.375</v>
+        <v>36.75</v>
       </c>
       <c r="T10" s="25">
-        <v>39.186999999999998</v>
+        <v>34.482999999999997</v>
       </c>
       <c r="U10" s="25">
-        <v>39.64</v>
+        <v>34.469000000000001</v>
       </c>
       <c r="V10" s="25">
-        <v>38.313000000000002</v>
+        <v>34.484000000000002</v>
       </c>
       <c r="W10" s="25">
-        <v>38.86</v>
+        <v>34.890999999999998</v>
       </c>
       <c r="X10" s="25">
-        <v>38.984999999999999</v>
+        <v>35.484999999999999</v>
       </c>
       <c r="BA10" s="28"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="s">
         <v>23</v>
       </c>
@@ -3509,38 +3509,38 @@
         <v>23</v>
       </c>
       <c r="O11" s="25">
-        <v>79.531000000000006</v>
+        <v>68.813000000000002</v>
       </c>
       <c r="P11" s="25">
-        <v>79.061999999999998</v>
+        <v>69.703000000000003</v>
       </c>
       <c r="Q11" s="25">
-        <v>79.451999999999998</v>
+        <v>69.186999999999998</v>
       </c>
       <c r="R11" s="25">
-        <v>80.421999999999997</v>
+        <v>69.343999999999994</v>
       </c>
       <c r="S11" s="25">
-        <v>79.25</v>
+        <v>69.11</v>
       </c>
       <c r="T11" s="25">
-        <v>80.468000000000004</v>
+        <v>69.156000000000006</v>
       </c>
       <c r="U11" s="25">
-        <v>80.186999999999998</v>
+        <v>69.826999999999998</v>
       </c>
       <c r="V11" s="25">
-        <v>79.296000000000006</v>
+        <v>68.843999999999994</v>
       </c>
       <c r="W11" s="25">
-        <v>79.218999999999994</v>
+        <v>69.078000000000003</v>
       </c>
       <c r="X11" s="25">
-        <v>79.391000000000005</v>
+        <v>68.531999999999996</v>
       </c>
       <c r="BA11" s="28"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="s">
         <v>25</v>
       </c>
@@ -3581,38 +3581,38 @@
         <v>25</v>
       </c>
       <c r="O12" s="25">
-        <v>117.85899999999999</v>
+        <v>100.062</v>
       </c>
       <c r="P12" s="25">
-        <v>117.328</v>
+        <v>100.60899999999999</v>
       </c>
       <c r="Q12" s="25">
-        <v>119.078</v>
+        <v>100.374</v>
       </c>
       <c r="R12" s="25">
-        <v>117.782</v>
+        <v>99.313000000000002</v>
       </c>
       <c r="S12" s="25">
-        <v>118.548</v>
+        <v>100.32899999999999</v>
       </c>
       <c r="T12" s="25">
-        <v>118.047</v>
+        <v>99.951999999999998</v>
       </c>
       <c r="U12" s="25">
-        <v>117.407</v>
+        <v>99.311999999999998</v>
       </c>
       <c r="V12" s="25">
-        <v>116.937</v>
+        <v>99.39</v>
       </c>
       <c r="W12" s="25">
-        <v>118.047</v>
+        <v>100.313</v>
       </c>
       <c r="X12" s="25">
-        <v>116.28100000000001</v>
+        <v>98.641000000000005</v>
       </c>
       <c r="BA12" s="28"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="s">
         <v>24</v>
       </c>
@@ -3653,38 +3653,38 @@
         <v>24</v>
       </c>
       <c r="O13" s="25">
-        <v>241.06200000000001</v>
+        <v>213.51599999999999</v>
       </c>
       <c r="P13" s="25">
-        <v>232.96899999999999</v>
+        <v>213.09299999999999</v>
       </c>
       <c r="Q13" s="25">
-        <v>242.90700000000001</v>
+        <v>220.203</v>
       </c>
       <c r="R13" s="25">
-        <v>232.68700000000001</v>
+        <v>212.375</v>
       </c>
       <c r="S13" s="25">
-        <v>237.672</v>
+        <v>215.93700000000001</v>
       </c>
       <c r="T13" s="25">
-        <v>240.64099999999999</v>
+        <v>207.98400000000001</v>
       </c>
       <c r="U13" s="25">
-        <v>232.46899999999999</v>
+        <v>213.03100000000001</v>
       </c>
       <c r="V13" s="25">
-        <v>233.26499999999999</v>
+        <v>206.56200000000001</v>
       </c>
       <c r="W13" s="25">
-        <v>233.28100000000001</v>
+        <v>211.65600000000001</v>
       </c>
       <c r="X13" s="25">
-        <v>241.547</v>
+        <v>215.18799999999999</v>
       </c>
       <c r="BA13" s="28"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
@@ -3698,129 +3698,46 @@
       <c r="M14" s="23"/>
       <c r="BA14" s="28"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="BA15" s="28"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="L16" s="31"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
       <c r="K20" s="30"/>
       <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="E21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="L22" s="21"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="L23" s="21"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="L27" s="21"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="L28" s="21"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="31"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="L31" s="21"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L33" s="21"/>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L34" s="21"/>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="31"/>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="L36" s="31"/>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="21"/>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L38" s="21"/>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="L39" s="21"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3838,22 +3755,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A00D3-4455-4871-A842-3FB0F610BDD7}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H1" sqref="H1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="5" customWidth="1"/>
-    <col min="3" max="6" width="10.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="17.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="5" customWidth="1"/>
+    <col min="3" max="6" width="10.54296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="44" t="s">
         <v>35</v>
       </c>
@@ -3864,7 +3781,7 @@
       <c r="F1" s="44"/>
       <c r="G1" s="45"/>
     </row>
-    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
@@ -3883,7 +3800,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="36"/>
       <c r="B3" s="41"/>
       <c r="C3" s="48"/>
@@ -3898,7 +3815,7 @@
       </c>
       <c r="G3" s="41"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -3923,11 +3840,10 @@
       </c>
       <c r="G4" s="7">
         <f>AVERAGE(data!O4:X4)</f>
-        <v>5.9466999999999999</v>
-      </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6.3311000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -3952,11 +3868,10 @@
       </c>
       <c r="G5" s="7">
         <f>AVERAGE(data!O5:X5)</f>
-        <v>10.093800000000002</v>
-      </c>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10.2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3981,11 +3896,10 @@
       </c>
       <c r="G6" s="7">
         <f>AVERAGE(data!O6:X6)</f>
-        <v>13.068599999999998</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13.282499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -4010,11 +3924,10 @@
       </c>
       <c r="G7" s="7">
         <f>AVERAGE(data!O7:X7)</f>
-        <v>30.4312</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -4039,11 +3952,10 @@
       </c>
       <c r="G8" s="7">
         <f>AVERAGE(data!O8:X8)</f>
-        <v>34.6875</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32.521799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -4068,11 +3980,10 @@
       </c>
       <c r="G9" s="7">
         <f>AVERAGE(data!O9:X9)</f>
-        <v>37.420299999999997</v>
-      </c>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34.048299999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -4097,11 +4008,10 @@
       </c>
       <c r="G10" s="7">
         <f>AVERAGE(data!O10:X10)</f>
-        <v>39.207900000000002</v>
-      </c>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35.304500000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -4126,11 +4036,10 @@
       </c>
       <c r="G11" s="7">
         <f>AVERAGE(data!O11:X11)</f>
-        <v>79.627799999999993</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69.159400000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -4155,11 +4064,10 @@
       </c>
       <c r="G12" s="7">
         <f>AVERAGE(data!O12:X12)</f>
-        <v>117.73140000000001</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>99.829499999999982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
@@ -4184,42 +4092,11 @@
       </c>
       <c r="G13" s="7">
         <f>AVERAGE(data!O13:X13)</f>
-        <v>236.85</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="8:8" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H27" s="6"/>
-    </row>
+        <v>212.9545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:G1"/>
